--- a/data/dataAnisian.xlsx
+++ b/data/dataAnisian.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Paleo Research\Manuscripts\Triassic JPI modeling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A67A1B-4C9E-4804-9F57-8B241B0B6FD3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{422EB3F0-7B07-4D82-A97C-B8A301A6E8C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10350" yWindow="740" windowWidth="19950" windowHeight="13160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10350" yWindow="735" windowWidth="19950" windowHeight="13155" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cont_d18O" sheetId="1" r:id="rId1"/>
     <sheet name="Cont_CIA" sheetId="5" r:id="rId2"/>
     <sheet name="Cont_AlSi" sheetId="7" r:id="rId3"/>
-    <sheet name="Cont_Clump" sheetId="6" r:id="rId4"/>
-    <sheet name="Cont_Sites" sheetId="2" r:id="rId5"/>
-    <sheet name="Mar_d18O" sheetId="3" r:id="rId6"/>
-    <sheet name="Mar_Sites" sheetId="4" r:id="rId7"/>
+    <sheet name="Cont_PWI" sheetId="8" r:id="rId4"/>
+    <sheet name="Cont_Clump" sheetId="6" r:id="rId5"/>
+    <sheet name="Cont_Sites" sheetId="2" r:id="rId6"/>
+    <sheet name="Mar_d18O" sheetId="3" r:id="rId7"/>
+    <sheet name="Mar_Sites" sheetId="4" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="179021" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1811" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1887" uniqueCount="501">
   <si>
     <t>1m</t>
   </si>
@@ -1621,6 +1622,66 @@
   </si>
   <si>
     <t>David</t>
+  </si>
+  <si>
+    <t>R1823</t>
+  </si>
+  <si>
+    <t>R1824</t>
+  </si>
+  <si>
+    <t>R1825</t>
+  </si>
+  <si>
+    <t>R1826</t>
+  </si>
+  <si>
+    <t>R1827</t>
+  </si>
+  <si>
+    <t>R1828</t>
+  </si>
+  <si>
+    <t>R1829</t>
+  </si>
+  <si>
+    <t>R1830</t>
+  </si>
+  <si>
+    <t>R1831</t>
+  </si>
+  <si>
+    <t>R1832</t>
+  </si>
+  <si>
+    <t>R1833</t>
+  </si>
+  <si>
+    <t>R1834</t>
+  </si>
+  <si>
+    <t>R1835</t>
+  </si>
+  <si>
+    <t>R1836</t>
+  </si>
+  <si>
+    <t>R1837</t>
+  </si>
+  <si>
+    <t>R1838</t>
+  </si>
+  <si>
+    <t>R1839</t>
+  </si>
+  <si>
+    <t>R1840</t>
+  </si>
+  <si>
+    <t>Antarctica</t>
+  </si>
+  <si>
+    <t>PWI</t>
   </si>
 </sst>
 </file>
@@ -2125,7 +2186,7 @@
       <selection activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -3157,16 +3218,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="C25" activeCellId="1" sqref="A25:A42 C25:C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -3431,6 +3493,204 @@
       </c>
       <c r="C24" t="s">
         <v>412</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>481</v>
+      </c>
+      <c r="B25">
+        <v>0.2143671607753706</v>
+      </c>
+      <c r="C25" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>482</v>
+      </c>
+      <c r="B26">
+        <v>0.21289954337899542</v>
+      </c>
+      <c r="C26" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>483</v>
+      </c>
+      <c r="B27">
+        <v>0.13650627615062763</v>
+      </c>
+      <c r="C27" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>484</v>
+      </c>
+      <c r="B28">
+        <v>0.14322647362978283</v>
+      </c>
+      <c r="C28" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>485</v>
+      </c>
+      <c r="B29">
+        <v>0.19182027649769587</v>
+      </c>
+      <c r="C29" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>486</v>
+      </c>
+      <c r="B30">
+        <v>0.20561797752808988</v>
+      </c>
+      <c r="C30" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>487</v>
+      </c>
+      <c r="B31">
+        <v>0.21949404761904764</v>
+      </c>
+      <c r="C31" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>488</v>
+      </c>
+      <c r="B32">
+        <v>0.24705111402359109</v>
+      </c>
+      <c r="C32" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>489</v>
+      </c>
+      <c r="B33">
+        <v>0.24984653161448744</v>
+      </c>
+      <c r="C33" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>490</v>
+      </c>
+      <c r="B34">
+        <v>0.21540880503144652</v>
+      </c>
+      <c r="C34" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>491</v>
+      </c>
+      <c r="B35">
+        <v>0.18637157833430401</v>
+      </c>
+      <c r="C35" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>492</v>
+      </c>
+      <c r="B36">
+        <v>0.16291854072963516</v>
+      </c>
+      <c r="C36" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>493</v>
+      </c>
+      <c r="B37">
+        <v>0.11262648482182139</v>
+      </c>
+      <c r="C37" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>494</v>
+      </c>
+      <c r="B38">
+        <v>0.13041536400178649</v>
+      </c>
+      <c r="C38" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>495</v>
+      </c>
+      <c r="B39">
+        <v>0.12962962962962965</v>
+      </c>
+      <c r="C39" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>496</v>
+      </c>
+      <c r="B40">
+        <v>0.14026666666666665</v>
+      </c>
+      <c r="C40" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>497</v>
+      </c>
+      <c r="B41">
+        <v>0.17640633533588204</v>
+      </c>
+      <c r="C41" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>498</v>
+      </c>
+      <c r="B42">
+        <v>0.22505938242280285</v>
+      </c>
+      <c r="C42" t="s">
+        <v>499</v>
       </c>
     </row>
   </sheetData>
@@ -3446,7 +3706,7 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -3520,6 +3780,232 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2425A1B-4DCB-415B-A781-5EA445F8B248}">
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" t="s">
+        <v>500</v>
+      </c>
+      <c r="C1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>481</v>
+      </c>
+      <c r="B2">
+        <v>29.364555970156207</v>
+      </c>
+      <c r="C2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>482</v>
+      </c>
+      <c r="B3">
+        <v>29.38508577946989</v>
+      </c>
+      <c r="C3" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>483</v>
+      </c>
+      <c r="B4">
+        <v>22.892553169566789</v>
+      </c>
+      <c r="C4" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>484</v>
+      </c>
+      <c r="B5">
+        <v>23.914291164052404</v>
+      </c>
+      <c r="C5" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>485</v>
+      </c>
+      <c r="B6">
+        <v>25.998670466313907</v>
+      </c>
+      <c r="C6" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>486</v>
+      </c>
+      <c r="B7">
+        <v>28.537787564004269</v>
+      </c>
+      <c r="C7" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>487</v>
+      </c>
+      <c r="B8">
+        <v>24.743613271884364</v>
+      </c>
+      <c r="C8" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>488</v>
+      </c>
+      <c r="B9">
+        <v>30.243710619019875</v>
+      </c>
+      <c r="C9" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>489</v>
+      </c>
+      <c r="B10">
+        <v>32.045186031226599</v>
+      </c>
+      <c r="C10" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>490</v>
+      </c>
+      <c r="B11">
+        <v>32.599978259005596</v>
+      </c>
+      <c r="C11" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>491</v>
+      </c>
+      <c r="B12">
+        <v>27.762174201090144</v>
+      </c>
+      <c r="C12" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>492</v>
+      </c>
+      <c r="B13">
+        <v>28.790441066712862</v>
+      </c>
+      <c r="C13" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>493</v>
+      </c>
+      <c r="B14">
+        <v>22.485088746811698</v>
+      </c>
+      <c r="C14" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>494</v>
+      </c>
+      <c r="B15">
+        <v>24.692032238344865</v>
+      </c>
+      <c r="C15" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>495</v>
+      </c>
+      <c r="B16">
+        <v>18.488063176382731</v>
+      </c>
+      <c r="C16" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>496</v>
+      </c>
+      <c r="B17">
+        <v>23.249179101112862</v>
+      </c>
+      <c r="C17" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>497</v>
+      </c>
+      <c r="B18">
+        <v>26.087632720464292</v>
+      </c>
+      <c r="C18" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>498</v>
+      </c>
+      <c r="B19">
+        <v>28.83814695091856</v>
+      </c>
+      <c r="C19" t="s">
+        <v>499</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -3527,10 +4013,10 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.81640625"/>
+    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -3582,120 +4068,6 @@
       </c>
       <c r="E3" t="s">
         <v>412</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="15.54296875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2">
-        <v>37.81</v>
-      </c>
-      <c r="C2">
-        <v>48.43</v>
-      </c>
-      <c r="D2">
-        <v>43.12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>468</v>
-      </c>
-      <c r="B3">
-        <v>39.76</v>
-      </c>
-      <c r="C3">
-        <v>50.41</v>
-      </c>
-      <c r="D3">
-        <v>45.085000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>400</v>
-      </c>
-      <c r="B4">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>15</v>
-      </c>
-      <c r="D4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>407</v>
-      </c>
-      <c r="B5" s="23">
-        <v>58.92</v>
-      </c>
-      <c r="C5" s="23">
-        <v>69.91</v>
-      </c>
-      <c r="D5">
-        <v>64.34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>412</v>
-      </c>
-      <c r="B6">
-        <v>39.49</v>
-      </c>
-      <c r="C6">
-        <v>50.16</v>
-      </c>
-      <c r="D6">
-        <v>44.7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="4" t="s">
-        <v>469</v>
-      </c>
-      <c r="B7">
-        <v>39.01</v>
-      </c>
-      <c r="C7">
-        <v>49.64</v>
-      </c>
-      <c r="D7">
-        <v>44.325000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -3704,6 +4076,136 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2">
+        <v>37.81</v>
+      </c>
+      <c r="C2">
+        <v>48.43</v>
+      </c>
+      <c r="D2">
+        <v>43.12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>468</v>
+      </c>
+      <c r="B3">
+        <v>39.76</v>
+      </c>
+      <c r="C3">
+        <v>50.41</v>
+      </c>
+      <c r="D3">
+        <v>45.085000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>400</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>407</v>
+      </c>
+      <c r="B5" s="23">
+        <v>58.92</v>
+      </c>
+      <c r="C5" s="23">
+        <v>69.91</v>
+      </c>
+      <c r="D5">
+        <v>64.34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>412</v>
+      </c>
+      <c r="B6">
+        <v>39.49</v>
+      </c>
+      <c r="C6">
+        <v>50.16</v>
+      </c>
+      <c r="D6">
+        <v>44.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="B7">
+        <v>39.01</v>
+      </c>
+      <c r="C7">
+        <v>49.64</v>
+      </c>
+      <c r="D7">
+        <v>44.325000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>499</v>
+      </c>
+      <c r="B8">
+        <v>72.819999999999993</v>
+      </c>
+      <c r="C8">
+        <v>78.62</v>
+      </c>
+      <c r="D8">
+        <v>75.69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D592"/>
   <sheetViews>
@@ -3711,10 +4213,10 @@
       <selection activeCell="G308" sqref="G308"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.54296875" customWidth="1"/>
-    <col min="3" max="3" width="16.36328125" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -12010,15 +12512,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.6328125" customWidth="1"/>
+    <col min="1" max="1" width="29.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">

--- a/data/dataAnisian.xlsx
+++ b/data/dataAnisian.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Paleo Research\Manuscripts\Triassic JPI modeling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{422EB3F0-7B07-4D82-A97C-B8A301A6E8C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22237767-3FAE-47A1-B05C-24E00C9ED167}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10350" yWindow="735" windowWidth="19950" windowHeight="13155" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10350" yWindow="735" windowWidth="19950" windowHeight="13155" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cont_d18O" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Mar_d18O" sheetId="3" r:id="rId7"/>
     <sheet name="Mar_Sites" sheetId="4" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="179021" iterateDelta="1E-4"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1805,7 +1805,7 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1896,6 +1896,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -3783,7 +3787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2425A1B-4DCB-415B-A781-5EA445F8B248}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -4080,7 +4084,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4106,102 +4110,103 @@
       <c r="A2" t="s">
         <v>63</v>
       </c>
-      <c r="B2">
-        <v>37.81</v>
-      </c>
-      <c r="C2">
-        <v>48.43</v>
-      </c>
-      <c r="D2">
-        <v>43.12</v>
+      <c r="B2" s="32">
+        <v>40.115269090909102</v>
+      </c>
+      <c r="C2" s="32">
+        <v>45.628137272727301</v>
+      </c>
+      <c r="D2" s="32">
+        <v>42.788012727272701</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>468</v>
       </c>
-      <c r="B3">
-        <v>39.76</v>
-      </c>
-      <c r="C3">
-        <v>50.41</v>
-      </c>
-      <c r="D3">
-        <v>45.085000000000001</v>
+      <c r="B3" s="32">
+        <v>41.928480909090901</v>
+      </c>
+      <c r="C3" s="32">
+        <v>47.440751818181802</v>
+      </c>
+      <c r="D3" s="32">
+        <v>44.603929999999998</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>400</v>
       </c>
-      <c r="B4">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>15</v>
-      </c>
-      <c r="D4">
-        <v>10</v>
+      <c r="B4" s="32">
+        <v>11.0820236363636</v>
+      </c>
+      <c r="C4" s="32">
+        <v>16.604244545454545</v>
+      </c>
+      <c r="D4" s="32">
+        <v>13.764300909090901</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>407</v>
       </c>
-      <c r="B5" s="23">
-        <v>58.92</v>
-      </c>
-      <c r="C5" s="23">
-        <v>69.91</v>
-      </c>
-      <c r="D5">
-        <v>64.34</v>
+      <c r="B5" s="33">
+        <v>64.1113890909091</v>
+      </c>
+      <c r="C5" s="33">
+        <v>69.618773636363599</v>
+      </c>
+      <c r="D5" s="32">
+        <v>66.823587272727295</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>412</v>
       </c>
-      <c r="B6">
-        <v>39.49</v>
-      </c>
-      <c r="C6">
-        <v>50.16</v>
-      </c>
-      <c r="D6">
-        <v>44.7</v>
+      <c r="B6" s="32">
+        <v>41.663841818181801</v>
+      </c>
+      <c r="C6" s="32">
+        <v>47.176425454545502</v>
+      </c>
+      <c r="D6" s="32">
+        <v>44.338140000000003</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="B7">
-        <v>39.01</v>
-      </c>
-      <c r="C7">
-        <v>49.64</v>
-      </c>
-      <c r="D7">
-        <v>44.325000000000003</v>
+      <c r="B7" s="32">
+        <v>41.165731818181797</v>
+      </c>
+      <c r="C7" s="32">
+        <v>46.6782536363636</v>
+      </c>
+      <c r="D7" s="32">
+        <v>43.840022727272697</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>499</v>
       </c>
-      <c r="B8">
-        <v>72.819999999999993</v>
-      </c>
-      <c r="C8">
-        <v>78.62</v>
-      </c>
-      <c r="D8">
-        <v>75.69</v>
+      <c r="B8" s="32">
+        <v>73.828092727272704</v>
+      </c>
+      <c r="C8" s="32">
+        <v>79.334435454545499</v>
+      </c>
+      <c r="D8" s="32">
+        <v>76.556950000000001</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12516,7 +12521,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -12541,238 +12546,238 @@
       <c r="A2" t="s">
         <v>470</v>
       </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>23</v>
-      </c>
-      <c r="D2">
-        <v>13</v>
+      <c r="B2" s="32">
+        <v>0</v>
+      </c>
+      <c r="C2" s="32">
+        <v>5.3368100000000007</v>
+      </c>
+      <c r="D2" s="32">
+        <v>2.5568418181818182</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>98</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="32">
         <v>0</v>
       </c>
-      <c r="C3">
-        <v>20</v>
-      </c>
-      <c r="D3">
-        <v>10</v>
+      <c r="C3" s="32">
+        <v>3.5907636363636364</v>
+      </c>
+      <c r="D3" s="32">
+        <v>0.82240818181818187</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>100</v>
       </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>23</v>
-      </c>
-      <c r="D4">
-        <v>13</v>
+      <c r="B4" s="32">
+        <v>6.8748699999999996</v>
+      </c>
+      <c r="C4" s="32">
+        <v>12.397296363636363</v>
+      </c>
+      <c r="D4" s="32">
+        <v>9.5741581818181825</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>117</v>
       </c>
-      <c r="B5" s="7">
-        <v>15.26</v>
-      </c>
-      <c r="C5" s="7">
-        <v>23.73</v>
-      </c>
-      <c r="D5">
-        <v>19.34</v>
+      <c r="B5" s="32">
+        <v>15.922345454545455</v>
+      </c>
+      <c r="C5" s="32">
+        <v>21.443694545454544</v>
+      </c>
+      <c r="D5" s="32">
+        <v>18.589378181818184</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>471</v>
       </c>
-      <c r="B6" s="7">
-        <v>3</v>
-      </c>
-      <c r="C6" s="7">
-        <v>23</v>
-      </c>
-      <c r="D6">
-        <v>13</v>
+      <c r="B6" s="32">
+        <v>0</v>
+      </c>
+      <c r="C6" s="32">
+        <v>4.644485454545455</v>
+      </c>
+      <c r="D6" s="32">
+        <v>1.869310909090909</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>141</v>
       </c>
-      <c r="B7">
-        <v>18.260000000000002</v>
-      </c>
-      <c r="C7">
-        <v>27.12</v>
-      </c>
-      <c r="D7">
-        <v>22.53</v>
+      <c r="B7" s="32">
+        <v>19.655796363636366</v>
+      </c>
+      <c r="C7" s="32">
+        <v>25.176120000000001</v>
+      </c>
+      <c r="D7" s="32">
+        <v>22.31702090909091</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>472</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>20</v>
-      </c>
-      <c r="D8">
-        <v>10</v>
+      <c r="B8" s="32">
+        <v>1.6806572727272728</v>
+      </c>
+      <c r="C8" s="32">
+        <v>7.2030563636363638</v>
+      </c>
+      <c r="D8" s="32">
+        <v>4.4080390909090905</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>169</v>
       </c>
-      <c r="B9">
-        <v>5</v>
-      </c>
-      <c r="C9">
-        <v>25</v>
-      </c>
-      <c r="D9">
-        <v>15</v>
+      <c r="B9" s="32">
+        <v>5.3168063636363634</v>
+      </c>
+      <c r="C9" s="32">
+        <v>10.839230000000001</v>
+      </c>
+      <c r="D9" s="32">
+        <v>8.0229027272727276</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>477</v>
       </c>
-      <c r="B10">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C10">
-        <v>14.59</v>
-      </c>
-      <c r="D10">
-        <v>9.74</v>
+      <c r="B10" s="32">
+        <v>7.8016990909090902</v>
+      </c>
+      <c r="C10" s="32">
+        <v>13.3241127272727</v>
+      </c>
+      <c r="D10" s="32">
+        <v>10.4983672727273</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>478</v>
       </c>
-      <c r="B11">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C11">
-        <v>14.59</v>
-      </c>
-      <c r="D11">
-        <v>9.74</v>
+      <c r="B11" s="32">
+        <v>7.9041609090909102</v>
+      </c>
+      <c r="C11" s="32">
+        <v>13.4265745454545</v>
+      </c>
+      <c r="D11" s="32">
+        <v>10.6003272727273</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>479</v>
       </c>
-      <c r="B12">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C12">
-        <v>14.59</v>
-      </c>
-      <c r="D12">
-        <v>9.74</v>
+      <c r="B12" s="32">
+        <v>7.6649390909090904</v>
+      </c>
+      <c r="C12" s="32">
+        <v>13.1873527272727</v>
+      </c>
+      <c r="D12" s="32">
+        <v>10.3622790909091</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>480</v>
       </c>
-      <c r="B13">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C13">
-        <v>14.59</v>
-      </c>
-      <c r="D13">
-        <v>9.74</v>
+      <c r="B13" s="32">
+        <v>6.4988354545454499</v>
+      </c>
+      <c r="C13" s="32">
+        <v>12.0212727272727</v>
+      </c>
+      <c r="D13" s="32">
+        <v>9.2022118181818193</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>399</v>
       </c>
-      <c r="B14">
-        <v>12.91</v>
-      </c>
-      <c r="C14">
-        <v>21.41</v>
-      </c>
-      <c r="D14">
-        <v>17.010000000000002</v>
+      <c r="B14" s="32">
+        <v>14.137560000000001</v>
+      </c>
+      <c r="C14" s="32">
+        <v>19.659284545454543</v>
+      </c>
+      <c r="D14" s="32">
+        <v>16.808810000000001</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>473</v>
       </c>
-      <c r="B15">
-        <v>15.09</v>
-      </c>
-      <c r="C15">
-        <v>22.31</v>
-      </c>
-      <c r="D15">
-        <v>18.54</v>
+      <c r="B15" s="32">
+        <v>15.811126363636363</v>
+      </c>
+      <c r="C15" s="32">
+        <v>21.332501818181818</v>
+      </c>
+      <c r="D15" s="32">
+        <v>18.478392727272727</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>474</v>
       </c>
-      <c r="B16">
-        <v>3</v>
-      </c>
-      <c r="C16">
-        <v>23</v>
-      </c>
-      <c r="D16">
-        <v>13</v>
+      <c r="B16" s="32">
+        <v>8.1139063636363637</v>
+      </c>
+      <c r="C16" s="32">
+        <v>13.636299999999999</v>
+      </c>
+      <c r="D16" s="32">
+        <v>10.807172727272727</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>475</v>
       </c>
-      <c r="B17">
-        <v>3</v>
-      </c>
-      <c r="C17">
-        <v>23</v>
-      </c>
-      <c r="D17">
-        <v>13</v>
+      <c r="B17" s="32">
+        <v>7.3072163636363632</v>
+      </c>
+      <c r="C17" s="32">
+        <v>12.829634545454546</v>
+      </c>
+      <c r="D17" s="32">
+        <v>10.004419090909092</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>476</v>
       </c>
-      <c r="B18">
-        <v>3</v>
-      </c>
-      <c r="C18">
-        <v>23</v>
-      </c>
-      <c r="D18">
-        <v>13</v>
+      <c r="B18" s="32">
+        <v>7.3215281818181817</v>
+      </c>
+      <c r="C18" s="32">
+        <v>12.843946363636363</v>
+      </c>
+      <c r="D18" s="32">
+        <v>10.018655454545454</v>
       </c>
     </row>
     <row r="20" spans="1:4">
